--- a/sydw/2020上/考点/3-社会主义建设.xlsx
+++ b/sydw/2020上/考点/3-社会主义建设.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
     <sheet name="中国特色社会主义理论体系" sheetId="1" r:id="rId2"/>
     <sheet name="毛泽东思想" sheetId="2" r:id="rId3"/>
     <sheet name="马克思主义" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="邓小平理论" sheetId="6" r:id="rId6"/>
+    <sheet name="三个代表" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="263">
   <si>
     <t>哲学思想</t>
   </si>
@@ -104,6 +107,96 @@
   </si>
   <si>
     <t>一个国家(核心),两种制度</t>
+  </si>
+  <si>
+    <t>定义以及形成</t>
+  </si>
+  <si>
+    <t>十七大提出了中国特色社会主义理论体系的科学命题,明确指出:“中国特色社会主义理论体系,就是包括邓小平理论、‘三个代表’重要思想以及科学发展观等重大战略思想在内的科学理论体系”</t>
+  </si>
+  <si>
+    <t>十八大删除了“等重大战略思想”这几个字</t>
+  </si>
+  <si>
+    <t>十九大均列明,习近平新时代中国特色社会主义思想是中国特色社会主义理论体系的重要组成部分。</t>
+  </si>
+  <si>
+    <t>中特体系是马克思主义中国化的第二次历史性飞跃</t>
+  </si>
+  <si>
+    <t>中特体系的精髓是解放思想、实事求是、与时俱进、求真务实</t>
+  </si>
+  <si>
+    <t>中特社体系主要内容</t>
+  </si>
+  <si>
+    <t>系统回答了什么事社会主义、怎样建设社会主义，建设什么样的党、怎么建设党，实现什么样的发展、怎样发展等重大理论实际问题</t>
+  </si>
+  <si>
+    <t>科学阐明问题</t>
+  </si>
+  <si>
+    <t>思想路线</t>
+  </si>
+  <si>
+    <t>发展道路</t>
+  </si>
+  <si>
+    <t>发展阶段</t>
+  </si>
+  <si>
+    <t>根本任务</t>
+  </si>
+  <si>
+    <t>发展动力</t>
+  </si>
+  <si>
+    <t>发展战略</t>
+  </si>
+  <si>
+    <t>依靠力量</t>
+  </si>
+  <si>
+    <t>国际战略</t>
+  </si>
+  <si>
+    <t>领导力量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">意义 </t>
+  </si>
+  <si>
+    <t>方针</t>
+  </si>
+  <si>
+    <t>为深入探索和把握社会主义发展规律提供了根本指导方针</t>
+  </si>
+  <si>
+    <t>思想基础</t>
+  </si>
+  <si>
+    <t>为全党全国各族人民团结奋斗提供了共同思想基础</t>
+  </si>
+  <si>
+    <t>思想武器</t>
+  </si>
+  <si>
+    <t>为中国发展进步、实现中华民族伟大复兴提供了强大思想武器</t>
+  </si>
+  <si>
+    <t>重要贡献</t>
+  </si>
+  <si>
+    <t>中特社为世界社会主义运动的发展做出了重要贡献</t>
+  </si>
+  <si>
+    <t>中特社体系含括</t>
+  </si>
+  <si>
+    <t>科学发展更</t>
+  </si>
+  <si>
+    <t>习近平新时代中特思想</t>
   </si>
   <si>
     <t>一个中心，两个基本点</t>
@@ -495,7 +588,439 @@
     <t>1956年对农业、手工业、资本主义工商业的社会主义改造基本完成。标准我国几千年的阶级剥削结束，实现了由新民主主义向社会主义社会的转变，社会主义基本制度在我国初步建立</t>
   </si>
   <si>
+    <t>形成过程</t>
+  </si>
+  <si>
+    <t>活的灵魂</t>
+  </si>
+  <si>
+    <t>实事求是</t>
+  </si>
+  <si>
+    <t>群众路线</t>
+  </si>
+  <si>
+    <t>精髓</t>
+  </si>
+  <si>
     <t>马克思主义哲学</t>
+  </si>
+  <si>
+    <t>基本内容</t>
+  </si>
+  <si>
+    <t>马克思主义指导思想</t>
+  </si>
+  <si>
+    <t>是社会主义核心价值体系的灵魂</t>
+  </si>
+  <si>
+    <t>中国特色社会主义共同理想</t>
+  </si>
+  <si>
+    <t>是社会主义核心价值体系的主题</t>
+  </si>
+  <si>
+    <t>以爱国主义为核心的民族精神和以改革创新为核心的时代精神</t>
+  </si>
+  <si>
+    <t>是社会主义核心价值体系的精髓</t>
+  </si>
+  <si>
+    <t>社会主义荣辱观</t>
+  </si>
+  <si>
+    <t>是社会主义核心价值体系的基础</t>
+  </si>
+  <si>
+    <t>四个尊重</t>
+  </si>
+  <si>
+    <t>劳动</t>
+  </si>
+  <si>
+    <t>劳动居于核心和基础的地位，社会发展和进步都需要靠劳动实现</t>
+  </si>
+  <si>
+    <t>知识</t>
+  </si>
+  <si>
+    <t>知识是人类实践和认识的结晶，又是创造财富的重要资源，它需要作用于劳动者、劳动资料才能形成实际的财富</t>
+  </si>
+  <si>
+    <t>创造</t>
+  </si>
+  <si>
+    <t>创造本身就是一种劳动，是一种在最大限度地发挥智力和体力的复杂过程</t>
+  </si>
+  <si>
+    <t>人才</t>
+  </si>
+  <si>
+    <t>人才是知识资源的载体，其本质在于创造性和进步性，人才只有通过劳动，为社会创造物质和精神财富，才能体现出自身的价值</t>
+  </si>
+  <si>
+    <t>形成</t>
+  </si>
+  <si>
+    <t>十一届三中全会</t>
+  </si>
+  <si>
+    <t>拉开建设中特社的序幕</t>
+  </si>
+  <si>
+    <t>十二大</t>
+  </si>
+  <si>
+    <t>提出了“建设有中国特色社会主义”的科学命题</t>
+  </si>
+  <si>
+    <t>十三大</t>
+  </si>
+  <si>
+    <t>邓小平理论轮廓形成</t>
+  </si>
+  <si>
+    <t>十三大定了阶段：现在是社会主义初级阶段</t>
+  </si>
+  <si>
+    <t>南方谈话</t>
+  </si>
+  <si>
+    <t>标志邓小平理论成熟</t>
+  </si>
+  <si>
+    <t>十五大</t>
+  </si>
+  <si>
+    <t>正式提出“邓小平理论”这一概念（写入党章并确立为党的知道思想）</t>
+  </si>
+  <si>
+    <t>全国人大九届二次会议</t>
+  </si>
+  <si>
+    <t>将邓小平理论载入宪法</t>
+  </si>
+  <si>
+    <t>历史地位</t>
+  </si>
+  <si>
+    <t>是马列主义、毛泽东思想的继承和发展</t>
+  </si>
+  <si>
+    <t>是中特社体系的开篇之作</t>
+  </si>
+  <si>
+    <t>是改革开放和社会主义现代化建设的科学指南</t>
+  </si>
+  <si>
+    <t>基本问题</t>
+  </si>
+  <si>
+    <t>“什么是社会主义？怎样建设社会主义？”，是建设中特社的首要基本理论问题</t>
+  </si>
+  <si>
+    <t>社会主义的本质，是解放生产力，发展生产力，消灭剥削，消除两极分化，最终达到共同富裕。（南方谈话）</t>
+  </si>
+  <si>
+    <t>社会主义根本原则</t>
+  </si>
+  <si>
+    <t>1.公有制</t>
+  </si>
+  <si>
+    <t>2.共同富裕</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>解放思想、实事求是的思想路线</t>
+  </si>
+  <si>
+    <t>1.解放思想、实事求是的思想路线是邓小平理论的活的灵魂，是邓小平理论的精髓</t>
+  </si>
+  <si>
+    <t>2.解放思想是实事求是的前提，实事求是是解放思想的目的和归宿</t>
+  </si>
+  <si>
+    <t>3.党的思想路线</t>
+  </si>
+  <si>
+    <t>一切从实际出发</t>
+  </si>
+  <si>
+    <t>理论联系实际</t>
+  </si>
+  <si>
+    <t>在实践中检验真理和发展真理</t>
+  </si>
+  <si>
+    <t>前提和基础</t>
+  </si>
+  <si>
+    <t>途径和方法</t>
+  </si>
+  <si>
+    <t>实质和核心</t>
+  </si>
+  <si>
+    <t>验证条件和目的</t>
+  </si>
+  <si>
+    <t>二</t>
+  </si>
+  <si>
+    <t>社会主义初级阶段理论</t>
+  </si>
+  <si>
+    <t>时间跨度</t>
+  </si>
+  <si>
+    <t>从我国进入社会主义到基本实现社会主义现代化的整个历史阶段</t>
+  </si>
+  <si>
+    <t>地位</t>
+  </si>
+  <si>
+    <t>我国最大的实际、基本国情、建设中特社的总依据</t>
+  </si>
+  <si>
+    <t>三</t>
+  </si>
+  <si>
+    <t>党的基本路线</t>
+  </si>
+  <si>
+    <t>是党和国家的生命线、人民的幸福线</t>
+  </si>
+  <si>
+    <t>一个中心两个基本点</t>
+  </si>
+  <si>
+    <t>党领导和团结全国各族人民，以经济建设为中心，坚持四项基本原则，坚持改革开放，自力更生，艰苦创业，为把我国建设成为富强、民主、文明的社会主义现代化国家</t>
+  </si>
+  <si>
+    <t>十七大</t>
+  </si>
+  <si>
+    <t>建设成为富强、民主、文明、和谐的社会主义现代化国家</t>
+  </si>
+  <si>
+    <t>十九大</t>
+  </si>
+  <si>
+    <t>建设成为富强、民主、文明、和谐、美丽的社会主义现代化强国</t>
+  </si>
+  <si>
+    <t>四</t>
+  </si>
+  <si>
+    <t>社会主义的根本任务</t>
+  </si>
+  <si>
+    <t>社会主义的根本任务是发展生产力（十八大：解放和发展生产力，是中特社的根本任务）</t>
+  </si>
+  <si>
+    <t>五</t>
+  </si>
+  <si>
+    <t>改革开放理论</t>
+  </si>
+  <si>
+    <t>对内改革</t>
+  </si>
+  <si>
+    <t>先农村</t>
+  </si>
+  <si>
+    <t>安徽凤阳小岗村</t>
+  </si>
+  <si>
+    <t>包产到户</t>
+  </si>
+  <si>
+    <t>后城市</t>
+  </si>
+  <si>
+    <t>对国企的改革</t>
+  </si>
+  <si>
+    <t>对外开放</t>
+  </si>
+  <si>
+    <t>经济特区</t>
+  </si>
+  <si>
+    <t>80年</t>
+  </si>
+  <si>
+    <t>深圳、珠海、汕头、厦门（都是市办级的）</t>
+  </si>
+  <si>
+    <t>88年</t>
+  </si>
+  <si>
+    <t>海南(省办）</t>
+  </si>
+  <si>
+    <t>当前</t>
+  </si>
+  <si>
+    <t>一带一路</t>
+  </si>
+  <si>
+    <t>改革的性质</t>
+  </si>
+  <si>
+    <t>改革是中国的第二次革命</t>
+  </si>
+  <si>
+    <t>是社会主义制度的自我完善和发展</t>
+  </si>
+  <si>
+    <t>改革的标准</t>
+  </si>
+  <si>
+    <t>1992年南方谈话</t>
+  </si>
+  <si>
+    <t>1.是否有利于发展社会主义社会生产力；2.是否有利于增强社会主义国家的综合国力；3.是否有利于提高人民的生活水平</t>
+  </si>
+  <si>
+    <t>地位/意义</t>
+  </si>
+  <si>
+    <t>是社会发展的直接动力；是强国之路；是关键抉择；是重要法宝；是关键一招。</t>
+  </si>
+  <si>
+    <t>六</t>
+  </si>
+  <si>
+    <t>社会主义市场经济理论</t>
+  </si>
+  <si>
+    <t>经济体制改革的核心问题是如何正确认识和处理计划与市场的关系</t>
+  </si>
+  <si>
+    <t>计划经济和市场经济不是划分社会制度的标志。计划和市场都是经济手段，是资源配置的一种方式。</t>
+  </si>
+  <si>
+    <t>社会制度划分标志是生产资料的归属（公有还是私有）</t>
+  </si>
+  <si>
+    <t>七</t>
+  </si>
+  <si>
+    <t>坚持一个中国原则，是“和平统一，一国两制”的核心，是发展两岸关系和实现和平统一的基础</t>
+  </si>
+  <si>
+    <t>一国两制的构想最初是为解决台湾问题而提出来的，首先运用于解决香港和澳门问题。</t>
+  </si>
+  <si>
+    <t>十六大</t>
+  </si>
+  <si>
+    <t>把三个代表写入党章</t>
+  </si>
+  <si>
+    <t>写入宪法</t>
+  </si>
+  <si>
+    <t>三个代表解决的问题是：“建设什么样的党、怎样建设党”的重大问题</t>
+  </si>
+  <si>
+    <t>始终做到“三个代表”，是我们党的立党之本、执政之基、力量之源。</t>
+  </si>
+  <si>
+    <t>贯彻“三个代表”要求，关键在坚持与时俱进；核心在保持党的先进性；本质在坚持执政为民。</t>
+  </si>
+  <si>
+    <r>
+      <t>代表中国先进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生产力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的发展要求</t>
+    </r>
+  </si>
+  <si>
+    <t>基础和前提</t>
+  </si>
+  <si>
+    <r>
+      <t>代表中国先进</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>文化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的前进方向</t>
+    </r>
+  </si>
+  <si>
+    <t>灵魂和旗帜</t>
+  </si>
+  <si>
+    <r>
+      <t>代表中国最广大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人民</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的根本利益</t>
+    </r>
+  </si>
+  <si>
+    <t>主体和目的</t>
+  </si>
+  <si>
+    <t>体现党的政治立场，为人民</t>
   </si>
 </sst>
 </file>
@@ -503,10 +1028,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -519,68 +1044,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -601,7 +1064,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,8 +1093,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -640,31 +1172,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -677,13 +1202,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,7 +1262,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,61 +1370,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,85 +1382,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,24 +1393,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -905,30 +1412,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -939,6 +1422,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -960,6 +1452,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -968,6 +1469,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -976,10 +1501,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -988,139 +1513,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1481,7 +2012,7 @@
   <sheetPr/>
   <dimension ref="B1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -1628,357 +2159,524 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C5:L86"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="19.8181818181818" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="3:12">
-      <c r="C5" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
+      <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="L5" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2"/>
+      <c r="B2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="3:6">
-      <c r="C6" s="1" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="3:9">
-      <c r="C7" s="1" t="s">
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="F7" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="I7" t="s">
+      <c r="B7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="3:6">
-      <c r="C8" s="1" t="s">
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F8" t="s">
+      <c r="B8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="6:12">
-      <c r="F9" t="s">
+    <row r="9" spans="1:2">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="L9" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2"/>
+      <c r="B10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="3:10">
-      <c r="C12" s="1" t="s">
+    <row r="11" spans="1:2">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="F12" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2"/>
+      <c r="B12" t="s">
         <v>42</v>
       </c>
-      <c r="J12" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2"/>
+      <c r="B13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="6:10">
-      <c r="F13" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="2"/>
+      <c r="B14" t="s">
         <v>44</v>
       </c>
-      <c r="J13" t="s">
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2"/>
+      <c r="B15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="6:10">
-      <c r="F14" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="2"/>
+      <c r="B16" t="s">
         <v>46</v>
       </c>
-      <c r="J14" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="3:6">
-      <c r="C17" s="1" t="s">
+      <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="F17" t="s">
+      <c r="C17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="3:6">
-      <c r="C19" s="1" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="2"/>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2"/>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2"/>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2"/>
+      <c r="B23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2"/>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="4:10">
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="J32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="4:8">
+      <c r="D36" t="s">
+        <v>74</v>
+      </c>
+      <c r="H36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="4:8">
+      <c r="D37" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="6:6">
-      <c r="F22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="6:6">
-      <c r="F25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="6:6">
-      <c r="F26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="6:6">
-      <c r="F27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="6:6">
-      <c r="F31" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="4:6">
-      <c r="D32" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6">
-      <c r="F33" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="6:6">
-      <c r="F34" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="3:6">
-      <c r="C38" t="s">
-        <v>60</v>
-      </c>
-      <c r="F38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="6:6">
-      <c r="F39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="6:11">
-      <c r="F41" t="s">
-        <v>63</v>
-      </c>
-      <c r="K41" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="6:11">
-      <c r="F42" t="s">
-        <v>65</v>
-      </c>
-      <c r="K42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="3:11">
-      <c r="C43" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" t="s">
-        <v>68</v>
-      </c>
-      <c r="F43" t="s">
-        <v>69</v>
-      </c>
-      <c r="K43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="6:11">
-      <c r="F44" t="s">
-        <v>71</v>
-      </c>
-      <c r="K44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="6:11">
-      <c r="F45" t="s">
-        <v>73</v>
-      </c>
-      <c r="K45" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46" spans="6:11">
-      <c r="F46" t="s">
-        <v>75</v>
-      </c>
-      <c r="K46" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="50" spans="6:12">
-      <c r="F50" t="s">
+      <c r="D42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="D48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="D57" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>90</v>
+      </c>
+      <c r="D61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4">
+      <c r="D62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="4:9">
+      <c r="D64" t="s">
+        <v>93</v>
+      </c>
+      <c r="I64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="4:9">
+      <c r="D65" t="s">
+        <v>95</v>
+      </c>
+      <c r="I65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" t="s">
+        <v>98</v>
+      </c>
+      <c r="D66" t="s">
+        <v>99</v>
+      </c>
+      <c r="I66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="4:9">
+      <c r="D67" t="s">
+        <v>101</v>
+      </c>
+      <c r="I67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="4:9">
+      <c r="D68" t="s">
+        <v>103</v>
+      </c>
+      <c r="I68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="4:9">
+      <c r="D69" t="s">
+        <v>105</v>
+      </c>
+      <c r="I69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="4:10">
+      <c r="D73" t="s">
         <v>16</v>
       </c>
-      <c r="I50" t="s">
-        <v>77</v>
-      </c>
-      <c r="L50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="6:9">
-      <c r="F51" t="s">
+      <c r="G73" t="s">
+        <v>107</v>
+      </c>
+      <c r="J73" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="4:7">
+      <c r="D74" t="s">
         <v>18</v>
       </c>
-      <c r="I51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="6:9">
-      <c r="F52" t="s">
-        <v>80</v>
-      </c>
-      <c r="I52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="6:6">
-      <c r="F53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="3:6">
-      <c r="C56" t="s">
-        <v>83</v>
-      </c>
-      <c r="F56" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="57" spans="6:6">
-      <c r="F57" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="58" spans="6:6">
-      <c r="F58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="5:6">
-      <c r="E59" t="s">
-        <v>87</v>
-      </c>
-      <c r="F59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="6:6">
-      <c r="F60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="6:6">
-      <c r="F61" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="6:6">
-      <c r="F62" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="6:6">
-      <c r="F68" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="3:6">
-      <c r="C69" t="s">
-        <v>93</v>
-      </c>
-      <c r="F69" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="3:6">
-      <c r="C74" t="s">
+      <c r="G74" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="75" spans="4:7">
+      <c r="D75" t="s">
+        <v>110</v>
+      </c>
+      <c r="G75" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="4:4">
+      <c r="D76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>113</v>
+      </c>
+      <c r="D79" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="4:4">
+      <c r="D80" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4">
+      <c r="C82" t="s">
+        <v>117</v>
+      </c>
+      <c r="D82" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4">
+      <c r="D84" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4">
+      <c r="D85" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4">
+      <c r="D91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>123</v>
+      </c>
+      <c r="D92" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
         <v>15</v>
       </c>
-      <c r="F74" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="75" spans="6:6">
-      <c r="F75" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="6:6">
-      <c r="F79" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="5:6">
-      <c r="E80" t="s">
-        <v>98</v>
-      </c>
-      <c r="F80" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81" spans="3:6">
-      <c r="C81" t="s">
-        <v>100</v>
-      </c>
-      <c r="F81" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="82" spans="6:6">
-      <c r="F82" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="83" spans="6:6">
-      <c r="F83" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="84" spans="6:6">
-      <c r="F84" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="86" spans="4:6">
-      <c r="D86" t="s">
-        <v>105</v>
-      </c>
-      <c r="F86" t="s">
-        <v>106</v>
+      <c r="D97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4">
+      <c r="D98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4">
+      <c r="D102" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="3:4">
+      <c r="C103" t="s">
+        <v>128</v>
+      </c>
+      <c r="D103" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>130</v>
+      </c>
+      <c r="D104" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4">
+      <c r="D105" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4">
+      <c r="D106" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4">
+      <c r="D107" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="B109" t="s">
+        <v>135</v>
+      </c>
+      <c r="D109" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1988,25 +2686,49 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E6:F37"/>
+  <dimension ref="C6:F48"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <sheetData>
     <row r="6" spans="5:6">
       <c r="E6" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="5:5">
       <c r="E37" t="s">
-        <v>109</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="3:5">
+      <c r="C47" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4">
+      <c r="C48" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2029,7 +2751,7 @@
   <sheetData>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>110</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2037,4 +2759,601 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A5:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <cols>
+    <col min="3" max="4" width="9.27272727272727" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="4:12">
+      <c r="D5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" t="s">
+        <v>147</v>
+      </c>
+      <c r="L5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="4:12">
+      <c r="D6" s="2"/>
+      <c r="E6" t="s">
+        <v>149</v>
+      </c>
+      <c r="L6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="4:12">
+      <c r="D8" s="2"/>
+      <c r="E8" t="s">
+        <v>153</v>
+      </c>
+      <c r="L8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="4:7">
+      <c r="D9" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7">
+      <c r="D10" s="2"/>
+      <c r="E10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="11" spans="4:7">
+      <c r="D11" s="2"/>
+      <c r="E11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="4:7">
+      <c r="D12" s="2"/>
+      <c r="E12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="D9:D12"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="E1:Q58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="6:9">
+      <c r="F1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1">
+        <v>1978</v>
+      </c>
+      <c r="H1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="6:9">
+      <c r="F2" s="2"/>
+      <c r="G2">
+        <v>1982</v>
+      </c>
+      <c r="H2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="6:12">
+      <c r="F3" s="2"/>
+      <c r="G3">
+        <v>1987</v>
+      </c>
+      <c r="H3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3" t="s">
+        <v>170</v>
+      </c>
+      <c r="L3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="6:9">
+      <c r="F4" s="2"/>
+      <c r="G4">
+        <v>1992</v>
+      </c>
+      <c r="H4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="5" spans="6:9">
+      <c r="F5" s="2"/>
+      <c r="G5">
+        <v>1997</v>
+      </c>
+      <c r="H5" t="s">
+        <v>174</v>
+      </c>
+      <c r="I5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="6:9">
+      <c r="F6" s="2"/>
+      <c r="G6">
+        <v>1999</v>
+      </c>
+      <c r="H6" t="s">
+        <v>176</v>
+      </c>
+      <c r="I6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="8" spans="6:7">
+      <c r="F8" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="6:7">
+      <c r="F9" s="2"/>
+      <c r="G9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="6:7">
+      <c r="F10" s="2"/>
+      <c r="G10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="5:6">
+      <c r="E14" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="5:5">
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="5:6">
+      <c r="E16" s="2"/>
+      <c r="F16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="5:8">
+      <c r="E17" s="2"/>
+      <c r="G17" t="s">
+        <v>185</v>
+      </c>
+      <c r="H17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="5:8">
+      <c r="E18" s="2"/>
+      <c r="H18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="6:14">
+      <c r="F23" t="s">
+        <v>192</v>
+      </c>
+      <c r="H23" t="s">
+        <v>193</v>
+      </c>
+      <c r="J23" t="s">
+        <v>194</v>
+      </c>
+      <c r="L23" t="s">
+        <v>142</v>
+      </c>
+      <c r="N23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="8:14">
+      <c r="H24" t="s">
+        <v>196</v>
+      </c>
+      <c r="J24" t="s">
+        <v>197</v>
+      </c>
+      <c r="L24" t="s">
+        <v>198</v>
+      </c>
+      <c r="N24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6">
+      <c r="E26" t="s">
+        <v>200</v>
+      </c>
+      <c r="F26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="6:8">
+      <c r="F27" t="s">
+        <v>202</v>
+      </c>
+      <c r="H27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="6:8">
+      <c r="F28" t="s">
+        <v>204</v>
+      </c>
+      <c r="H28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6">
+      <c r="E30" t="s">
+        <v>206</v>
+      </c>
+      <c r="F30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="6:8">
+      <c r="F31" t="s">
+        <v>204</v>
+      </c>
+      <c r="H31" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="32" spans="6:8">
+      <c r="F32" t="s">
+        <v>169</v>
+      </c>
+      <c r="H32" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="H33" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8">
+      <c r="F34" t="s">
+        <v>211</v>
+      </c>
+      <c r="H34" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8">
+      <c r="F35" t="s">
+        <v>213</v>
+      </c>
+      <c r="H35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6">
+      <c r="E37" t="s">
+        <v>215</v>
+      </c>
+      <c r="F37" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="38" spans="6:6">
+      <c r="F38" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6">
+      <c r="E40" t="s">
+        <v>218</v>
+      </c>
+      <c r="F40" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="42" spans="6:9">
+      <c r="F42" t="s">
+        <v>220</v>
+      </c>
+      <c r="G42" t="s">
+        <v>221</v>
+      </c>
+      <c r="H42" t="s">
+        <v>222</v>
+      </c>
+      <c r="I42" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="43" spans="7:8">
+      <c r="G43" t="s">
+        <v>224</v>
+      </c>
+      <c r="H43" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="6:9">
+      <c r="F44" t="s">
+        <v>226</v>
+      </c>
+      <c r="G44" t="s">
+        <v>227</v>
+      </c>
+      <c r="H44" t="s">
+        <v>228</v>
+      </c>
+      <c r="I44" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="8:9">
+      <c r="H45" t="s">
+        <v>230</v>
+      </c>
+      <c r="I45" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="46" spans="8:9">
+      <c r="H46" t="s">
+        <v>232</v>
+      </c>
+      <c r="I46" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="6:7">
+      <c r="F48" t="s">
+        <v>234</v>
+      </c>
+      <c r="G48" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7">
+      <c r="G49" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="50" spans="6:11">
+      <c r="F50" t="s">
+        <v>237</v>
+      </c>
+      <c r="G50" t="s">
+        <v>67</v>
+      </c>
+      <c r="I50" t="s">
+        <v>238</v>
+      </c>
+      <c r="K50" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="6:7">
+      <c r="F51" t="s">
+        <v>240</v>
+      </c>
+      <c r="G51" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6">
+      <c r="E52" t="s">
+        <v>242</v>
+      </c>
+      <c r="F52" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="53" spans="6:6">
+      <c r="F53" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="54" spans="6:17">
+      <c r="F54" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6">
+      <c r="E56" t="s">
+        <v>247</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="6:6">
+      <c r="F57" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="58" spans="6:6">
+      <c r="F58" t="s">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="F1:F6"/>
+    <mergeCell ref="F8:F10"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="G2:N11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="2" spans="7:9">
+      <c r="G2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="8:9">
+      <c r="H3">
+        <v>2004</v>
+      </c>
+      <c r="I3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="7:7">
+      <c r="G5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="7:7">
+      <c r="G6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="7:7">
+      <c r="G7" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="8:12">
+      <c r="H9" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="L9" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="8:12">
+      <c r="H10" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="L10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="8:14">
+      <c r="H11" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="L11" t="s">
+        <v>261</v>
+      </c>
+      <c r="N11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>